--- a/Riesgo/DataTarea_Exogenas_Riesgo12.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main/Riesgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main (1)/CUECOPolMon-main/Riesgo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E810B8A-EB6A-4D99-A583-2E802B64DB52}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{984CADC5-1389-4181-AEF6-B59520FC3947}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <v>-0.62631907029203904</v>
+        <v>-1.1263190702920389</v>
       </c>
       <c r="G3" s="4">
         <v>1.9430951174366471</v>
@@ -657,7 +657,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>-0.55067921100116612</v>
+        <v>-1.050679211001166</v>
       </c>
       <c r="G4" s="4">
         <v>1.875390183492327</v>
@@ -720,7 +720,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <v>-1.0032727483908617</v>
+        <v>-1.5032727483908617</v>
       </c>
       <c r="G7" s="4">
         <v>1.828265749973593</v>
@@ -741,7 +741,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>-1.0013130266544137</v>
+        <v>-1.5013130266544137</v>
       </c>
       <c r="G8" s="4">
         <v>1.793386743377628</v>
@@ -762,7 +762,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>-0.5005267862937508</v>
+        <v>-1.5005267862937508</v>
       </c>
       <c r="G9" s="4">
         <v>1.8138372489895269</v>
@@ -783,7 +783,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>-0.50021134666105282</v>
+        <v>-1.5002113466610527</v>
       </c>
       <c r="G10" s="4">
         <v>1.7888029173439268</v>
